--- a/documentation/WeightedAsthma_Percents.xlsx
+++ b/documentation/WeightedAsthma_Percents.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\pgsmi\Documents\GitHub\BRFSS\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RProjects\github\BRFSS\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB64E4A-E36C-4A71-87C0-11D8EFCBD330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD65E70-5940-4EEB-9DD2-5F51A3C06123}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21180" yWindow="-14025" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9810" yWindow="-13005" windowWidth="23340" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw data" sheetId="1" r:id="rId1"/>
